--- a/data/scheduling_DNN/predict/0.1/result8.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result8.xlsx
@@ -570,10 +570,10 @@
         <v>0.9773671627044678</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5895684361457825</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08607540279626846</v>
+        <v>0.1503878533840179</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.240476131439209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4996641278266907</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4742649495601654</v>
+        <v>0.5488024353981018</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8900089263916016</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5276612043380737</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04699644073843956</v>
+        <v>0.1312958747148514</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8752000331878662</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.9173193573951721</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1928740292787552</v>
+        <v>0.001774037489667535</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8846521377563477</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4942970275878906</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1665554195642471</v>
+        <v>0.152377113699913</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9314508438110352</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5216078758239746</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2162450104951859</v>
+        <v>0.1679712533950806</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9155538082122803</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4870613813400269</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06486374139785767</v>
+        <v>0.1836057603359222</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8729958534240723</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4853675365447998</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07403405010700226</v>
+        <v>0.1502557098865509</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8927099704742432</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.8850959539413452</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1820319443941116</v>
+        <v>5.797324774903245e-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9222180843353271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5283390879631042</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1399031132459641</v>
+        <v>0.1551406681537628</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8882060050964355</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.9400737285614014</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1121364682912827</v>
+        <v>0.002690260764211416</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8742609024047852</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4911905527114868</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1368811279535294</v>
+        <v>0.1467428952455521</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.887537956237793</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5308637619018555</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06915803253650665</v>
+        <v>0.1272164881229401</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9415690898895264</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5881673097610474</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2374626398086548</v>
+        <v>0.1248928159475327</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8846621513366699</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.8861357569694519</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1106237098574638</v>
+        <v>2.171513642679201e-06</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8740899562835693</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5294730067253113</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2457304894924164</v>
+        <v>0.1187608391046524</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8853771686553955</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.5199447274208069</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1827027797698975</v>
+        <v>0.1335408687591553</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8685319423675537</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4770256876945496</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002536114072427154</v>
+        <v>0.1532771438360214</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8828628063201904</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.8767911791801453</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003562853205949068</v>
+        <v>3.686465788632631e-05</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8951590061187744</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.4899205565452576</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2108045667409897</v>
+        <v>0.1642182022333145</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.553447961807251</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5891350507736206</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0003844838356599212</v>
+        <v>0.001273568370379508</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5688309669494629</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.4848543405532837</v>
       </c>
       <c r="W23" t="n">
-        <v>0.004210274666547775</v>
+        <v>0.0070520737208426</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5294530391693115</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.9901471734046936</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0007794203120283782</v>
+        <v>0.2122390866279602</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5369918346405029</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4843407273292542</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01017270982265472</v>
+        <v>0.002772139152511954</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5259189605712891</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.9026215076446533</v>
       </c>
       <c r="W26" t="n">
-        <v>0.003787766676396132</v>
+        <v>0.141904816031456</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5257670879364014</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.912469208240509</v>
       </c>
       <c r="W27" t="n">
-        <v>0.009670293889939785</v>
+        <v>0.1495385318994522</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5811989307403564</v>
       </c>
       <c r="V28" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5250463485717773</v>
       </c>
       <c r="W28" t="n">
-        <v>0.001897829119116068</v>
+        <v>0.003153112484142184</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5304939746856689</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4895867705345154</v>
       </c>
       <c r="W29" t="n">
-        <v>0.000563459936529398</v>
+        <v>0.001673399354331195</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5450189113616943</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.48179692029953</v>
       </c>
       <c r="W30" t="n">
-        <v>0.00185567862354219</v>
+        <v>0.003997019957751036</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5198709964752197</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.8862757086753845</v>
       </c>
       <c r="W31" t="n">
-        <v>0.004299318883568048</v>
+        <v>0.1342524141073227</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5328779220581055</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.8842403292655945</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01621194370090961</v>
+        <v>0.1234555393457413</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5219478607177734</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4995965361595154</v>
       </c>
       <c r="W33" t="n">
-        <v>0.007383466232568026</v>
+        <v>0.0004995816852897406</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5233089923858643</v>
       </c>
       <c r="V34" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5897606611251831</v>
       </c>
       <c r="W34" t="n">
-        <v>0.00032037976779975</v>
+        <v>0.004415824078023434</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5239319801330566</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.9244258403778076</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01812291704118252</v>
+        <v>0.1603953391313553</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5233619213104248</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4856818914413452</v>
       </c>
       <c r="W36" t="n">
-        <v>0.007698240224272013</v>
+        <v>0.001419784617610276</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5221738815307617</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5129762291908264</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0103647131472826</v>
+        <v>8.459680975647643e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5205831527709961</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5302822589874268</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006142455618828535</v>
+        <v>9.407266043126583e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.544050931930542</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5295148491859436</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00228915037587285</v>
+        <v>0.0002112976944772527</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5257511138916016</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.524329662322998</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002685684012249112</v>
+        <v>2.020524561885395e-06</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5331590175628662</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5464791655540466</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07773709297180176</v>
+        <v>0.000177426336449571</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4140160083770752</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5305219292640686</v>
       </c>
       <c r="W42" t="n">
-        <v>0.007599836215376854</v>
+        <v>0.01357362978160381</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4199161529541016</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5294437408447266</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03966085240244865</v>
+        <v>0.01199629250913858</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3919289112091064</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5443622469902039</v>
       </c>
       <c r="W44" t="n">
-        <v>0.000808360637165606</v>
+        <v>0.02323592267930508</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3965120315551758</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5439202189445496</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01158803142607212</v>
+        <v>0.02172917313873768</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3915038108825684</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.8878812789916992</v>
       </c>
       <c r="W46" t="n">
-        <v>0.004372181370854378</v>
+        <v>0.2463905960321426</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4031481742858887</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.5140108466148376</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1111751198768616</v>
+        <v>0.01229053176939487</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4073660373687744</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9063895344734192</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01027132943272591</v>
+        <v>0.2490244507789612</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3943130970001221</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5023068189620972</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1094657480716705</v>
+        <v>0.01166264433413744</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.393402099609375</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.4768489003181458</v>
       </c>
       <c r="W50" t="n">
-        <v>0.05333013832569122</v>
+        <v>0.006963368505239487</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3987131118774414</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5232658386230469</v>
       </c>
       <c r="W51" t="n">
-        <v>0.05092328041791916</v>
+        <v>0.01551338192075491</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3933789730072021</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.489473819732666</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1191035881638527</v>
+        <v>0.009234219789505005</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3950450420379639</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.4853042364120483</v>
       </c>
       <c r="W53" t="n">
-        <v>0.004823168739676476</v>
+        <v>0.008146721869707108</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3921051025390625</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5307386517524719</v>
       </c>
       <c r="W54" t="n">
-        <v>0.02585506252944469</v>
+        <v>0.01921926066279411</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.39357590675354</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4838535785675049</v>
       </c>
       <c r="W55" t="n">
-        <v>0.05475347489118576</v>
+        <v>0.00815005786716938</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3950738906860352</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.9238176941871643</v>
       </c>
       <c r="W56" t="n">
-        <v>0.003946167416870594</v>
+        <v>0.2795700132846832</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3959259986877441</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.8881264328956604</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1765308678150177</v>
+        <v>0.2422612607479095</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.396885871887207</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5195134878158569</v>
       </c>
       <c r="W58" t="n">
-        <v>0.001531842863187194</v>
+        <v>0.01503753196448088</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3960418701171875</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4824641942977905</v>
       </c>
       <c r="W59" t="n">
-        <v>0.001576251001097262</v>
+        <v>0.007468818221241236</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3957200050354004</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9535259604454041</v>
       </c>
       <c r="W60" t="n">
-        <v>0.001597101450897753</v>
+        <v>0.3111474812030792</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3950538635253906</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.9532130360603333</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01180181093513966</v>
+        <v>0.3115416765213013</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9542648792266846</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4849079251289368</v>
       </c>
       <c r="W62" t="n">
-        <v>0.148989126086235</v>
+        <v>0.2202959507703781</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>1.059302091598511</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5131168961524963</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1878813654184341</v>
+        <v>0.2983182668685913</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8796000480651855</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5309523344039917</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1321535706520081</v>
+        <v>0.1215552315115929</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8888089656829834</v>
       </c>
       <c r="V65" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4885181784629822</v>
       </c>
       <c r="W65" t="n">
-        <v>0.02403822354972363</v>
+        <v>0.1602327078580856</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9310557842254639</v>
       </c>
       <c r="V66" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5262819528579712</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1440312713384628</v>
+        <v>0.1638418585062027</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8817968368530273</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.9456811547279358</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1447332352399826</v>
+        <v>0.004081205930560827</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8778469562530518</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5211191773414612</v>
       </c>
       <c r="W68" t="n">
-        <v>0.04191453382372856</v>
+        <v>0.1272547096014023</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9093649387359619</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.9402183294296265</v>
       </c>
       <c r="W69" t="n">
-        <v>0.06291434168815613</v>
+        <v>0.0009519316954538226</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9298770427703857</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4855995178222656</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1651015430688858</v>
+        <v>0.1973825246095657</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8834660053253174</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.9398728013038635</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1948630809783936</v>
+        <v>0.003181726671755314</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8786449432373047</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.943349301815033</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1663427799940109</v>
+        <v>0.00418665399774909</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8870680332183838</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.8842599391937256</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1691839694976807</v>
+        <v>7.88539182394743e-06</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.931300163269043</v>
       </c>
       <c r="V74" t="n">
-        <v>0.56818687915802</v>
+        <v>0.8846503496170044</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1318512558937073</v>
+        <v>0.002176205161958933</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9262840747833252</v>
       </c>
       <c r="V75" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.4857152700424194</v>
       </c>
       <c r="W75" t="n">
-        <v>0.04056673124432564</v>
+        <v>0.1941008716821671</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8763949871063232</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.6048200726509094</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1625689715147018</v>
+        <v>0.07375293225049973</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8866560459136963</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4946198463439941</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1839525550603867</v>
+        <v>0.1536923795938492</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8746299743652344</v>
       </c>
       <c r="V78" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.8948281407356262</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2347714900970459</v>
+        <v>0.0004079659120179713</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9043278694152832</v>
       </c>
       <c r="V79" t="n">
-        <v>0.476378470659256</v>
+        <v>0.9282486438751221</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1831406950950623</v>
+        <v>0.0005722034256905317</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8700571060180664</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4857141375541687</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1887348890304565</v>
+        <v>0.1477195173501968</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9228999614715576</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5021771192550659</v>
       </c>
       <c r="W81" t="n">
-        <v>0.08949121832847595</v>
+        <v>0.1770077049732208</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5499980449676514</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5246841907501221</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0002378137724008411</v>
+        <v>0.0006407912005670369</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.534013032913208</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4839097261428833</v>
       </c>
       <c r="W83" t="n">
-        <v>0.008333276025950909</v>
+        <v>0.002510341349989176</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5249030590057373</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5312774777412415</v>
       </c>
       <c r="W84" t="n">
-        <v>0.00263054552488029</v>
+        <v>4.063321466674097e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5221860408782959</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.4699591994285583</v>
       </c>
       <c r="W85" t="n">
-        <v>0.08796780556440353</v>
+        <v>0.002727642888203263</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5217208862304688</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8862478137016296</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01858921907842159</v>
+        <v>0.1328798830509186</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5511269569396973</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.589746356010437</v>
       </c>
       <c r="W87" t="n">
-        <v>0.007182718720287085</v>
+        <v>0.001491458038799465</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.521420955657959</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.527563750743866</v>
       </c>
       <c r="W88" t="n">
-        <v>0.00256658811122179</v>
+        <v>3.773393109440804e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5233149528503418</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.47031569480896</v>
       </c>
       <c r="W89" t="n">
-        <v>0.00486315181478858</v>
+        <v>0.002808921271935105</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5207588672637939</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4856690168380737</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0283221323043108</v>
+        <v>0.001231297617778182</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5261561870574951</v>
       </c>
       <c r="V91" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5019831657409668</v>
       </c>
       <c r="W91" t="n">
-        <v>0.009629284031689167</v>
+        <v>0.0005843349499627948</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5884418487548828</v>
       </c>
       <c r="V92" t="n">
-        <v>0.436027318239212</v>
+        <v>0.484500527381897</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02323018945753574</v>
+        <v>0.01080379821360111</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5336611270904541</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4985790848731995</v>
       </c>
       <c r="W93" t="n">
-        <v>0.009535480290651321</v>
+        <v>0.001230749650858343</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5900330543518066</v>
       </c>
       <c r="V94" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5217483639717102</v>
       </c>
       <c r="W94" t="n">
-        <v>0.04929951205849648</v>
+        <v>0.004662798717617989</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5252888202667236</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9300525784492493</v>
       </c>
       <c r="W95" t="n">
-        <v>0.009220867417752743</v>
+        <v>0.1638336926698685</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5210540294647217</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.88385409116745</v>
       </c>
       <c r="W96" t="n">
-        <v>0.00219795573502779</v>
+        <v>0.1316238790750504</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5862629413604736</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6210951805114746</v>
+        <v>1.028394222259521</v>
       </c>
       <c r="W97" t="n">
-        <v>0.001213284907862544</v>
+        <v>0.1954800635576248</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5274701118469238</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5039988160133362</v>
       </c>
       <c r="W98" t="n">
-        <v>0.003145358990877867</v>
+        <v>0.0005509017501026392</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5264620780944824</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.8840023279190063</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0004903496592305601</v>
+        <v>0.1278350353240967</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5300171375274658</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4995241165161133</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0005104527226649225</v>
+        <v>0.0009298243094235659</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5237579345703125</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5876487493515015</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0100766122341156</v>
+        <v>0.004082036204636097</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4234189987182617</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9657688140869141</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01620031893253326</v>
+        <v>0.2941433191299438</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.416295051574707</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.994165301322937</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001717528910376132</v>
+        <v>0.3339340388774872</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4122650623321533</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.8815344572067261</v>
       </c>
       <c r="W104" t="n">
-        <v>0.002135120797902346</v>
+        <v>0.220213770866394</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4121530055999756</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5888969898223877</v>
       </c>
       <c r="W105" t="n">
-        <v>0.002899754559621215</v>
+        <v>0.03123843669891357</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3933088779449463</v>
       </c>
       <c r="V106" t="n">
-        <v>0.630542516708374</v>
+        <v>0.8849419355392456</v>
       </c>
       <c r="W106" t="n">
-        <v>0.05627980083227158</v>
+        <v>0.241703063249588</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3947718143463135</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5222360491752625</v>
       </c>
       <c r="W107" t="n">
-        <v>0.006386876571923494</v>
+        <v>0.01624713093042374</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3939440250396729</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8816993832588196</v>
       </c>
       <c r="W108" t="n">
-        <v>0.003584877820685506</v>
+        <v>0.2379052937030792</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3976380825042725</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5166827440261841</v>
       </c>
       <c r="W109" t="n">
-        <v>0.003599825082346797</v>
+        <v>0.01417163107544184</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4162859916687012</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5318384170532227</v>
       </c>
       <c r="W110" t="n">
-        <v>0.001792888506315649</v>
+        <v>0.01335236337035894</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3984611034393311</v>
       </c>
       <c r="V111" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4991740584373474</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1110381111502647</v>
+        <v>0.0101430993527174</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.411297082901001</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4953241944313049</v>
       </c>
       <c r="W112" t="n">
-        <v>0.04519475251436234</v>
+        <v>0.007060555275529623</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3957080841064453</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.8871002197265625</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06832421571016312</v>
+        <v>0.241466224193573</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3947300910949707</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4966402053833008</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0500916987657547</v>
+        <v>0.01038567163050175</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4274938106536865</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5173797607421875</v>
       </c>
       <c r="W115" t="n">
-        <v>7.267738692462444e-05</v>
+        <v>0.008079484105110168</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3992891311645508</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5838924050331116</v>
       </c>
       <c r="W116" t="n">
-        <v>0.001349464524537325</v>
+        <v>0.03407836705446243</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3980660438537598</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4360273480415344</v>
+        <v>1.001196622848511</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001441060565412045</v>
+        <v>0.3637664914131165</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4034459590911865</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5248451828956604</v>
       </c>
       <c r="W118" t="n">
-        <v>0.001065520104020834</v>
+        <v>0.01473777182400227</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3973560333251953</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.5557791590690613</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0003539575263857841</v>
+        <v>0.02509788610041142</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.406217098236084</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.8843969106674194</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02350655198097229</v>
+        <v>0.2286559343338013</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4456748962402344</v>
       </c>
       <c r="V121" t="n">
-        <v>0.618610143661499</v>
+        <v>0.4767282605171204</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02990660071372986</v>
+        <v>0.0009643114171922207</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8792660236358643</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4778459072113037</v>
       </c>
       <c r="W122" t="n">
-        <v>0.249912366271019</v>
+        <v>0.161138117313385</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>1.056241035461426</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5302562713623047</v>
       </c>
       <c r="W123" t="n">
-        <v>0.4541621208190918</v>
+        <v>0.2766599655151367</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8686840534210205</v>
       </c>
       <c r="V124" t="n">
-        <v>0.475897878408432</v>
+        <v>0.9778516888618469</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1542809754610062</v>
+        <v>0.01191757246851921</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.928879976272583</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5294609665870667</v>
       </c>
       <c r="W125" t="n">
-        <v>0.182447150349617</v>
+        <v>0.1595355421304703</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8896138668060303</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.9372020959854126</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1171017661690712</v>
+        <v>0.002264639595523477</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.873833179473877</v>
       </c>
       <c r="V127" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4989294409751892</v>
       </c>
       <c r="W127" t="n">
-        <v>0.003037346061319113</v>
+        <v>0.140552818775177</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.87693190574646</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5217909216880798</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1524733603000641</v>
+        <v>0.1261251121759415</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9254348278045654</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5300707221031189</v>
       </c>
       <c r="W129" t="n">
-        <v>0.09520921111106873</v>
+        <v>0.1563127785921097</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9138801097869873</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5202385187149048</v>
       </c>
       <c r="W130" t="n">
-        <v>0.0857742577791214</v>
+        <v>0.1549537032842636</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8697259426116943</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.9275612831115723</v>
       </c>
       <c r="W131" t="n">
-        <v>0.05181374400854111</v>
+        <v>0.00334492651745677</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8817069530487061</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.501767635345459</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1102586835622787</v>
+        <v>0.1443538814783096</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8995211124420166</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4992364048957825</v>
       </c>
       <c r="W133" t="n">
-        <v>0.06544102728366852</v>
+        <v>0.1602278500795364</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8759720325469971</v>
       </c>
       <c r="V134" t="n">
-        <v>0.473930835723877</v>
+        <v>0.5216097831726074</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1616371273994446</v>
+        <v>0.125572606921196</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8880660533905029</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.4892736077308655</v>
       </c>
       <c r="W135" t="n">
-        <v>0.07121630012989044</v>
+        <v>0.1590354144573212</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8710269927978516</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5220528244972229</v>
       </c>
       <c r="W136" t="n">
-        <v>0.06025882065296173</v>
+        <v>0.121782973408699</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8742730617523193</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.9102091193199158</v>
       </c>
       <c r="W137" t="n">
-        <v>0.09181548655033112</v>
+        <v>0.001291400287300348</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8760001659393311</v>
       </c>
       <c r="V138" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4853211045265198</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1745132505893707</v>
+        <v>0.1526301354169846</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8718459606170654</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5226239562034607</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1024306267499924</v>
+        <v>0.121956005692482</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8916819095611572</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.8795096278190613</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1157149970531464</v>
+        <v>0.0001481644430896267</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8812730312347412</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9182741045951843</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1787556409835815</v>
+        <v>0.001369079458527267</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5322990417480469</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5316608548164368</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0005200071027502418</v>
+        <v>4.072825561252102e-07</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5272278785705566</v>
       </c>
       <c r="V143" t="n">
-        <v>0.43533855676651</v>
+        <v>0.9309119582176208</v>
       </c>
       <c r="W143" t="n">
-        <v>0.008443647064268589</v>
+        <v>0.1629608422517776</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5275599956512451</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4809834361076355</v>
       </c>
       <c r="W144" t="n">
-        <v>0.008428839035332203</v>
+        <v>0.002169376006349921</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5775830745697021</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.589510977268219</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002238495042547584</v>
+        <v>0.000142274860991165</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5271220207214355</v>
       </c>
       <c r="V146" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.9515304565429688</v>
       </c>
       <c r="W146" t="n">
-        <v>0.08124903589487076</v>
+        <v>0.1801225244998932</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5509750843048096</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.5241520404815674</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0006174223381094635</v>
+        <v>0.0007194756763055921</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5270991325378418</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4816290140151978</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002089867135509849</v>
+        <v>0.002067531691864133</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5287609100341797</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5140863656997681</v>
       </c>
       <c r="W149" t="n">
-        <v>0.008599452674388885</v>
+        <v>0.0002153422537958249</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5244669914245605</v>
       </c>
       <c r="V150" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5896642208099365</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01804173178970814</v>
+        <v>0.004250678699463606</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5362560749053955</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4891292452812195</v>
       </c>
       <c r="W151" t="n">
-        <v>0.004914328921586275</v>
+        <v>0.002220937982201576</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5806510448455811</v>
       </c>
       <c r="V152" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5309990048408508</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01156971976161003</v>
+        <v>0.002465325174853206</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5243430137634277</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.5101096630096436</v>
       </c>
       <c r="W153" t="n">
-        <v>0.08534891903400421</v>
+        <v>0.0002025882713496685</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5245189666748047</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.5435070991516113</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02121247164905071</v>
+        <v>0.0003605491656344384</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5279281139373779</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.5549389123916626</v>
       </c>
       <c r="W155" t="n">
-        <v>0.08064965903759003</v>
+        <v>0.0007295832620002329</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5332980155944824</v>
       </c>
       <c r="V156" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5299906730651855</v>
       </c>
       <c r="W156" t="n">
-        <v>0.001834755297750235</v>
+        <v>1.093851460609585e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5621249675750732</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.5199893116950989</v>
       </c>
       <c r="W157" t="n">
-        <v>9.533250704407692e-05</v>
+        <v>0.001775413518771529</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5258479118347168</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.520687997341156</v>
       </c>
       <c r="W158" t="n">
-        <v>0.008638658560812473</v>
+        <v>2.662471706571523e-05</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5254659652709961</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5203099250793457</v>
       </c>
       <c r="W159" t="n">
-        <v>0.008000044152140617</v>
+        <v>2.658475023054052e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5247969627380371</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.9417686462402344</v>
       </c>
       <c r="W160" t="n">
-        <v>0.04945707321166992</v>
+        <v>0.1738653779029846</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5777518749237061</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4865919947624207</v>
       </c>
       <c r="W161" t="n">
-        <v>8.227858052123338e-05</v>
+        <v>0.008310123346745968</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4081718921661377</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4779424071311951</v>
       </c>
       <c r="W162" t="n">
-        <v>0.004454662092030048</v>
+        <v>0.004867924842983484</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3971080780029297</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.9409629106521606</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02447299472987652</v>
+        <v>0.2957780659198761</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3998439311981201</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5888358950614929</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0103906411677599</v>
+        <v>0.03571796417236328</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3991801738739014</v>
       </c>
       <c r="V165" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4854190945625305</v>
       </c>
       <c r="W165" t="n">
-        <v>0.005184068344533443</v>
+        <v>0.00743715139105916</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3935530185699463</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.885292649269104</v>
       </c>
       <c r="W166" t="n">
-        <v>0.02415428496897221</v>
+        <v>0.2418078631162643</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4571108818054199</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.498853325843811</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04139717668294907</v>
+        <v>0.001742431661114097</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4034140110015869</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5241105556488037</v>
       </c>
       <c r="W168" t="n">
-        <v>0.02822868153452873</v>
+        <v>0.01456765551120043</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.400972843170166</v>
       </c>
       <c r="V169" t="n">
-        <v>0.504918098449707</v>
+        <v>0.484455943107605</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01080461591482162</v>
+        <v>0.006969428155571222</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3991129398345947</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9052869081497192</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02878005616366863</v>
+        <v>0.2562120854854584</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3973889350891113</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4709288477897644</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02842146530747414</v>
+        <v>0.005408118944615126</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.400068998336792</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.9001001119613647</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003316705115139484</v>
+        <v>0.2500311136245728</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4574480056762695</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5879225134849548</v>
       </c>
       <c r="W173" t="n">
-        <v>1.236111302205245e-06</v>
+        <v>0.01702359691262245</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4176139831542969</v>
       </c>
       <c r="V174" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.8863258361816406</v>
       </c>
       <c r="W174" t="n">
-        <v>0.1081529259681702</v>
+        <v>0.2196907997131348</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4025900363922119</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.941979706287384</v>
       </c>
       <c r="W175" t="n">
-        <v>0.04082963615655899</v>
+        <v>0.2909412086009979</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3981661796569824</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.8734719753265381</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01111073605716228</v>
+        <v>0.2259155958890915</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4181060791015625</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.5890513062477112</v>
       </c>
       <c r="W177" t="n">
-        <v>0.05709659680724144</v>
+        <v>0.02922227047383785</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4011161327362061</v>
       </c>
       <c r="V178" t="n">
-        <v>0.56879723072052</v>
+        <v>0.589600145816803</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02811695076525211</v>
+        <v>0.03552622348070145</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4577679634094238</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5233237147331238</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0002303208748344332</v>
+        <v>0.004297556355595589</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3996090888977051</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9388637542724609</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0004441987839527428</v>
+        <v>0.2907955944538116</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4326081275939941</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5295395255088806</v>
       </c>
       <c r="W181" t="n">
-        <v>1.322810112469597e-05</v>
+        <v>0.009395696222782135</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.88199782371521</v>
       </c>
       <c r="V182" t="n">
-        <v>0.435836523771286</v>
+        <v>0.8883418440818787</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1990599036216736</v>
+        <v>4.024659574497491e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8762569427490234</v>
       </c>
       <c r="V183" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4845957159996033</v>
       </c>
       <c r="W183" t="n">
-        <v>0.09433607012033463</v>
+        <v>0.1533985137939453</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9785208702087402</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5210584402084351</v>
       </c>
       <c r="W184" t="n">
-        <v>0.02628393284976482</v>
+        <v>0.2092718780040741</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9027178287506104</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.8867224454879761</v>
       </c>
       <c r="W185" t="n">
-        <v>0.08016896992921829</v>
+        <v>0.0002558522974140942</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8725118637084961</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.9322929978370667</v>
       </c>
       <c r="W186" t="n">
-        <v>0.05249182879924774</v>
+        <v>0.003573783906176686</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8846879005432129</v>
       </c>
       <c r="V187" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9310278296470642</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2558777332305908</v>
+        <v>0.002147389110177755</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9008388519287109</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5214694142341614</v>
       </c>
       <c r="W188" t="n">
-        <v>0.07443276792764664</v>
+        <v>0.1439211666584015</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8802230358123779</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9590951204299927</v>
       </c>
       <c r="W189" t="n">
-        <v>0.107291616499424</v>
+        <v>0.006220805924385786</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.870927095413208</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5218005180358887</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1558271646499634</v>
+        <v>0.1218893676996231</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8899970054626465</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.886189341545105</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1621544510126114</v>
+        <v>1.449830415367614e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8742949962615967</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.8995156288146973</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2424416989088058</v>
+        <v>0.0006360802799463272</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8956859111785889</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5316588282585144</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1919548064470291</v>
+        <v>0.1325157135725021</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8750948905944824</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.904916524887085</v>
       </c>
       <c r="W194" t="n">
-        <v>0.09447599202394485</v>
+        <v>0.0008893298800103366</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8699159622192383</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.589183509349823</v>
       </c>
       <c r="W195" t="n">
-        <v>0.05963608250021935</v>
+        <v>0.07881070673465729</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8710060119628906</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9247318506240845</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1016960591077805</v>
+        <v>0.00288646575063467</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9052731990814209</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.9398961663246155</v>
       </c>
       <c r="W197" t="n">
-        <v>0.007836178876459599</v>
+        <v>0.001198749872855842</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8797140121459961</v>
       </c>
       <c r="V198" t="n">
-        <v>0.480756551027298</v>
+        <v>0.8793838620185852</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1591670513153076</v>
+        <v>1.089991030767123e-07</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9318499565124512</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.476859450340271</v>
       </c>
       <c r="W199" t="n">
-        <v>0.3069386184215546</v>
+        <v>0.2070163637399673</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8741679191589355</v>
       </c>
       <c r="V200" t="n">
-        <v>0.436014860868454</v>
+        <v>0.526343822479248</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1919780969619751</v>
+        <v>0.1209816038608551</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8794248104095459</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5550434589385986</v>
       </c>
       <c r="W201" t="n">
-        <v>0.06857971847057343</v>
+        <v>0.105223260819912</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5270261764526367</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.8839612603187561</v>
       </c>
       <c r="W202" t="n">
-        <v>0.002607761882245541</v>
+        <v>0.1274026483297348</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5241429805755615</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.9445617198944092</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01032770611345768</v>
+        <v>0.1767519116401672</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.558154821395874</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5023065805435181</v>
       </c>
       <c r="W204" t="n">
-        <v>0.007653940934687853</v>
+        <v>0.003119026077911258</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5246210098266602</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.6039121150970459</v>
       </c>
       <c r="W205" t="n">
-        <v>0.007897674106061459</v>
+        <v>0.006287079304456711</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.528886079788208</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.523929238319397</v>
       </c>
       <c r="W206" t="n">
-        <v>0.08658138662576675</v>
+        <v>2.45702776737744e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5302360057830811</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9155282378196716</v>
       </c>
       <c r="W207" t="n">
-        <v>0.002161847893148661</v>
+        <v>0.14845010638237</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.525378942489624</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.8985089659690857</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01522861234843731</v>
+        <v>0.1392260193824768</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5813870429992676</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.521159827709198</v>
       </c>
       <c r="W209" t="n">
-        <v>0.006341319531202316</v>
+        <v>0.003627317491918802</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5641729831695557</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.9415459632873535</v>
       </c>
       <c r="W210" t="n">
-        <v>0.005990663077682257</v>
+        <v>0.1424103677272797</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5521030426025391</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9579192399978638</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004179861396551132</v>
+        <v>0.1646867841482162</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5312881469726562</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5295117497444153</v>
       </c>
       <c r="W212" t="n">
-        <v>0.006031181197613478</v>
+        <v>3.155587137371185e-06</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5300800800323486</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5316603183746338</v>
       </c>
       <c r="W213" t="n">
-        <v>0.008321679197251797</v>
+        <v>2.497153218428139e-06</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.530829906463623</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9177132844924927</v>
       </c>
       <c r="W214" t="n">
-        <v>0.001699506887234747</v>
+        <v>0.1496787518262863</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5321879386901855</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.8996685743331909</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01245230808854103</v>
+        <v>0.1350420117378235</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.534041166305542</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4901586174964905</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01507860887795687</v>
+        <v>0.001925678108818829</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5247738361358643</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5251632928848267</v>
       </c>
       <c r="W217" t="n">
-        <v>0.00442285742610693</v>
+        <v>1.516765593123637e-07</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5293049812316895</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.531499981880188</v>
       </c>
       <c r="W218" t="n">
-        <v>0.008480086922645569</v>
+        <v>4.818027719011297e-06</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5311880111694336</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.9895723462104797</v>
       </c>
       <c r="W219" t="n">
-        <v>0.006021029781550169</v>
+        <v>0.2101161926984787</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5340619087219238</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5588467717170715</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0007539718644693494</v>
+        <v>0.0006142894271761179</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.528548002243042</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.9438871741294861</v>
       </c>
       <c r="W221" t="n">
-        <v>0.004950257483869791</v>
+        <v>0.1725066304206848</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3923921585083008</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.480526864528656</v>
       </c>
       <c r="W222" t="n">
-        <v>0.00317291053943336</v>
+        <v>0.007767726201564074</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3949811458587646</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5199200510978699</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01074687577784061</v>
+        <v>0.0156097300350666</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4006919860839844</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5298427939414978</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0004203772696200758</v>
+        <v>0.01667993143200874</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4019808769226074</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5086672306060791</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001158525119535625</v>
+        <v>0.0113819781690836</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4021320343017578</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4703638553619385</v>
       </c>
       <c r="W226" t="n">
-        <v>0.04106618091464043</v>
+        <v>0.004655581433326006</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4042708873748779</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.48624187707901</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1699231714010239</v>
+        <v>0.006719243247061968</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4050500392913818</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4825661778450012</v>
       </c>
       <c r="W228" t="n">
-        <v>0.002752631669864058</v>
+        <v>0.006008751690387726</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4002439975738525</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.8991475701332092</v>
       </c>
       <c r="W229" t="n">
-        <v>0.08096005767583847</v>
+        <v>0.2489047795534134</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3996028900146484</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.476908802986145</v>
       </c>
       <c r="W230" t="n">
-        <v>0.010285759344697</v>
+        <v>0.005976204294711351</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3992350101470947</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.4704223871231079</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06440604478120804</v>
+        <v>0.005067642778158188</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4166579246520996</v>
       </c>
       <c r="V232" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.9200774431228638</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1137291193008423</v>
+        <v>0.2534312009811401</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4020068645477295</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4769604206085205</v>
       </c>
       <c r="W233" t="n">
-        <v>0.0001293081440962851</v>
+        <v>0.005618035793304443</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4026069641113281</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5262365341186523</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0001564203703310341</v>
+        <v>0.01528427097946405</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4021189212799072</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5163177847862244</v>
       </c>
       <c r="W235" t="n">
-        <v>0.02185913920402527</v>
+        <v>0.01304138079285622</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4015340805053711</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.8985098004341125</v>
       </c>
       <c r="W236" t="n">
-        <v>0.001160857267677784</v>
+        <v>0.2469848692417145</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3986978530883789</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.8713087439537048</v>
       </c>
       <c r="W237" t="n">
-        <v>0.05539529770612717</v>
+        <v>0.2233610600233078</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.4281001091003418</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.9540477395057678</v>
       </c>
       <c r="W238" t="n">
-        <v>0.03839370608329773</v>
+        <v>0.2766209244728088</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3974308967590332</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.9946624636650085</v>
       </c>
       <c r="W239" t="n">
-        <v>0.06739898771047592</v>
+        <v>0.3566855490207672</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3963508605957031</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5190088748931885</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1159341558814049</v>
+        <v>0.01504498813301325</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3972170352935791</v>
       </c>
       <c r="V241" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.9254924654960632</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1132736876606941</v>
+        <v>0.2790749371051788</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9786741733551025</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5294126868247986</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2733674347400665</v>
+        <v>0.201835885643959</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.021574020385742</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5267049670219421</v>
       </c>
       <c r="W243" t="n">
-        <v>0.3179610073566437</v>
+        <v>0.2448953837156296</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8791148662567139</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.887071430683136</v>
       </c>
       <c r="W244" t="n">
-        <v>0.04939664527773857</v>
+        <v>6.330691394396126e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8793380260467529</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5311840176582336</v>
       </c>
       <c r="W245" t="n">
-        <v>0.06493693590164185</v>
+        <v>0.1212112158536911</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8737859725952148</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5443015694618225</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1019329652190208</v>
+        <v>0.1085599735379219</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8848879337310791</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.5210270285606384</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1770399659872055</v>
+        <v>0.1323947608470917</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8820731639862061</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4961344599723816</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1494060754776001</v>
+        <v>0.1489486843347549</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8879768848419189</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.9195652008056641</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1871385276317596</v>
+        <v>0.0009978216839954257</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.877443790435791</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4854917526245117</v>
       </c>
       <c r="W250" t="n">
-        <v>0.04795039445161819</v>
+        <v>0.1536263972520828</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.907991886138916</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4828229546546936</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2227538675069809</v>
+        <v>0.1807686239480972</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8805689811706543</v>
       </c>
       <c r="V252" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4854256510734558</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1083423644304276</v>
+        <v>0.1561382561922073</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8831939697265625</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.9320332407951355</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09431857615709305</v>
+        <v>0.00238527450710535</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9325211048126221</v>
       </c>
       <c r="V254" t="n">
-        <v>0.561543881893158</v>
+        <v>0.8996328115463257</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1376240998506546</v>
+        <v>0.001081639784388244</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.881397008895874</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.9402989149093628</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1983591318130493</v>
+        <v>0.003469434566795826</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8795590400695801</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5172642469406128</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1062740385532379</v>
+        <v>0.1312575191259384</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8846070766448975</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.556581437587738</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1428444534540176</v>
+        <v>0.1076008230447769</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.948897123336792</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4710026979446411</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1030641794204712</v>
+        <v>0.2283830791711807</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8792312145233154</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5173351764678955</v>
       </c>
       <c r="W259" t="n">
-        <v>0.06668715178966522</v>
+        <v>0.1309687495231628</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8725149631500244</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4703571200370789</v>
       </c>
       <c r="W260" t="n">
-        <v>0.03402313217520714</v>
+        <v>0.1617309302091599</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.872791051864624</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4981350898742676</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1030820906162262</v>
+        <v>0.1403670907020569</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5977189540863037</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5236268043518066</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01928855292499065</v>
+        <v>0.005489646457135677</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5333778858184814</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.5250247716903687</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01262442115694284</v>
+        <v>6.977451266720891e-05</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5294368267059326</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5294910073280334</v>
       </c>
       <c r="W264" t="n">
-        <v>0.001596413087099791</v>
+        <v>2.935539811232957e-09</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5353319644927979</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4997166395187378</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0003180964849889278</v>
+        <v>0.001268451334908605</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5312001705169678</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4867340326309204</v>
       </c>
       <c r="W266" t="n">
-        <v>0.000547323317732662</v>
+        <v>0.001977237407118082</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5341098308563232</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5207784175872803</v>
       </c>
       <c r="W267" t="n">
-        <v>0.009622962214052677</v>
+        <v>0.0001777265861164778</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5329229831695557</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.9144555926322937</v>
       </c>
       <c r="W268" t="n">
-        <v>0.006051640026271343</v>
+        <v>0.1455671340227127</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5818979740142822</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5281397700309753</v>
       </c>
       <c r="W269" t="n">
-        <v>0.003820375073701143</v>
+        <v>0.002889944473281503</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5292150974273682</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.485596239566803</v>
       </c>
       <c r="W270" t="n">
-        <v>0.00934878271073103</v>
+        <v>0.001902604708448052</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5363330841064453</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5202215909957886</v>
       </c>
       <c r="W271" t="n">
-        <v>0.001061939168721437</v>
+        <v>0.0002595802070572972</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5394589900970459</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.9179149866104126</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0137321837246418</v>
+        <v>0.1432289481163025</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5351159572601318</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5892238616943359</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0125146945938468</v>
+        <v>0.002927665365859866</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5960431098937988</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5016737580299377</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02551577240228653</v>
+        <v>0.008905574679374695</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.534276008605957</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.480752170085907</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001188161899335682</v>
+        <v>0.002864801324903965</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5397419929504395</v>
       </c>
       <c r="V276" t="n">
-        <v>0.474732518196106</v>
+        <v>0.8997669816017151</v>
       </c>
       <c r="W276" t="n">
-        <v>0.004226231947541237</v>
+        <v>0.1296179890632629</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5341260433197021</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5307321548461914</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0009063752950169146</v>
+        <v>1.151847936853301e-05</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.540956974029541</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5305145978927612</v>
       </c>
       <c r="W278" t="n">
-        <v>0.006834822241216898</v>
+        <v>0.0001090432197088376</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5329499244689941</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.6046232581138611</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02369865961372852</v>
+        <v>0.005137066822499037</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5285868644714355</v>
       </c>
       <c r="V280" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4714211225509644</v>
       </c>
       <c r="W280" t="n">
-        <v>0.08292312175035477</v>
+        <v>0.003267921973019838</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5306620597839355</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.8735732436180115</v>
       </c>
       <c r="W281" t="n">
-        <v>0.00900252815335989</v>
+        <v>0.1175880804657936</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4116649627685547</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.9144721031188965</v>
       </c>
       <c r="W282" t="n">
-        <v>0.04300371930003166</v>
+        <v>0.2528150081634521</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4360671043395996</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5310524106025696</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0003608367114793509</v>
+        <v>0.009022208862006664</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4095430374145508</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.9135071635246277</v>
       </c>
       <c r="W284" t="n">
-        <v>0.004354157019406557</v>
+        <v>0.2539798319339752</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4050149917602539</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9137938618659973</v>
       </c>
       <c r="W285" t="n">
-        <v>0.04867693409323692</v>
+        <v>0.258855938911438</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.419543981552124</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5125546455383301</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0002831675519701093</v>
+        <v>0.008650983683764935</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.440485954284668</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8879237174987793</v>
       </c>
       <c r="W287" t="n">
-        <v>0.000560739659704268</v>
+        <v>0.2002005577087402</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4377691745758057</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4901201725006104</v>
       </c>
       <c r="W288" t="n">
-        <v>0.000304315472021699</v>
+        <v>0.002740626921877265</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4747850894927979</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5883892178535461</v>
       </c>
       <c r="W289" t="n">
-        <v>1.648940997256432e-05</v>
+        <v>0.0129058975726366</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4939550757408142</v>
       </c>
       <c r="W290" t="n">
-        <v>0.001507587032392621</v>
+        <v>0.008201656863093376</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4088571071624756</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.5198469758033752</v>
       </c>
       <c r="W291" t="n">
-        <v>0.04634663090109825</v>
+        <v>0.01231875084340572</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4034028053283691</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5316745042800903</v>
       </c>
       <c r="W292" t="n">
-        <v>0.004489175975322723</v>
+        <v>0.01645362935960293</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4086599349975586</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4909107089042664</v>
       </c>
       <c r="W293" t="n">
-        <v>0.07642468810081482</v>
+        <v>0.006765189580619335</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4040219783782959</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4647894501686096</v>
       </c>
       <c r="W294" t="n">
-        <v>0.05739636719226837</v>
+        <v>0.003692685626447201</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.458176851272583</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.9518531560897827</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1285658478736877</v>
+        <v>0.243716299533844</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.403702974319458</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.5242496728897095</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02238072082400322</v>
+        <v>0.01453150622546673</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4040439128875732</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5252746343612671</v>
       </c>
       <c r="W297" t="n">
-        <v>0.009898731485009193</v>
+        <v>0.01469688769429922</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4299740791320801</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.930108904838562</v>
       </c>
       <c r="W298" t="n">
-        <v>0.03597532957792282</v>
+        <v>0.2501348555088043</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4129841327667236</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.8938975930213928</v>
       </c>
       <c r="W299" t="n">
-        <v>0.001986144809052348</v>
+        <v>0.2312777489423752</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4036910533905029</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4767940640449524</v>
       </c>
       <c r="W300" t="n">
-        <v>0.003861033590510488</v>
+        <v>0.005344050005078316</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.5016920566558838</v>
       </c>
       <c r="V301" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.990013062953949</v>
       </c>
       <c r="W301" t="n">
-        <v>0.05326760932803154</v>
+        <v>0.2384574115276337</v>
       </c>
     </row>
     <row r="302" spans="1:23">
